--- a/individual_case_outputs/avey/359.xlsx
+++ b/individual_case_outputs/avey/359.xlsx
@@ -608,7 +608,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>spontaneous abortion</t>
+          <t>possible pregnancy complications</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
